--- a/MIPS Code Demo.xlsx
+++ b/MIPS Code Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen R Z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Undergraduate\2022-2023-1\Multiple-Cycle_CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4936EC8B-FC56-4A60-BF7A-A6AEE84F987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C2132-86A6-40EC-9B22-07E4BAB45685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>initialization:</t>
   </si>
   <si>
-    <t>ori $sp, $zero, 0xFFFC</t>
-  </si>
-  <si>
     <t>main:</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
     <t>sub $14, $24, $25</t>
   </si>
   <si>
-    <t>ori $29, $0, 0xFFFC</t>
-  </si>
-  <si>
     <t>sub $29, $29, $13</t>
   </si>
   <si>
@@ -416,10 +410,6 @@
     <t>jr $31</t>
   </si>
   <si>
-    <t>001101_00000_11101_1111111111111100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001101_00000_10000_0000000000000101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,6 +768,18 @@
   </si>
   <si>
     <t>000101_10110_11101_0000000000001100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori $sp, $zero, 0x3FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori $29, $0, 0x3FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001101_00000_11101_0000001111111100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1151,16 +1153,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1169,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1177,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C33" si="0">DEC2HEX(A2)</f>
@@ -1187,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1198,17 +1200,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,17 +1218,17 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,17 +1236,17 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,17 +1254,17 @@
         <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1270,17 +1272,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1288,23 +1290,23 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1312,20 +1314,20 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1C</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1333,20 +1335,20 @@
         <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,20 +1356,20 @@
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1375,20 +1377,20 @@
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,20 +1398,20 @@
         <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2C</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,20 +1419,20 @@
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1438,20 +1440,20 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1459,20 +1461,20 @@
         <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1480,20 +1482,20 @@
         <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3C</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1501,20 +1503,20 @@
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1522,20 +1524,20 @@
         <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,20 +1545,20 @@
         <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1564,20 +1566,20 @@
         <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4C</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1585,20 +1587,20 @@
         <v>80</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1606,20 +1608,20 @@
         <v>84</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1627,23 +1629,23 @@
         <v>88</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1651,20 +1653,20 @@
         <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5C</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1672,20 +1674,20 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1693,20 +1695,20 @@
         <v>100</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1714,20 +1716,20 @@
         <v>104</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,20 +1737,20 @@
         <v>108</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6C</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1756,20 +1758,20 @@
         <v>112</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1777,20 +1779,20 @@
         <v>116</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1798,20 +1800,20 @@
         <v>120</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,20 +1821,20 @@
         <v>124</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>7C</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1840,20 +1842,20 @@
         <v>128</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="str">
         <f t="shared" ref="C34:C67" si="1">DEC2HEX(A34)</f>
         <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1861,20 +1863,20 @@
         <v>132</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,20 +1884,20 @@
         <v>136</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1903,20 +1905,20 @@
         <v>140</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>8C</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1924,20 +1926,20 @@
         <v>144</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1945,17 +1947,17 @@
         <v>148</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1963,20 +1965,20 @@
         <v>152</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2" t="str">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1984,20 +1986,20 @@
         <v>156</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41" s="2" t="str">
         <f t="shared" si="1"/>
         <v>9C</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2005,17 +2007,17 @@
         <v>160</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="str">
         <f t="shared" si="1"/>
         <v>A0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2023,20 +2025,20 @@
         <v>164</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2044,23 +2046,23 @@
         <v>168</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>A8</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2068,20 +2070,20 @@
         <v>172</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="1"/>
         <v>AC</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2089,17 +2091,17 @@
         <v>176</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>B0</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2107,20 +2109,20 @@
         <v>180</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="1"/>
         <v>B4</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2128,20 +2130,20 @@
         <v>184</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="1"/>
         <v>B8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2149,20 +2151,20 @@
         <v>188</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="1"/>
         <v>BC</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2170,17 +2172,17 @@
         <v>192</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="1"/>
         <v>C0</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2188,23 +2190,23 @@
         <v>196</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" si="1"/>
         <v>C4</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2212,20 +2214,20 @@
         <v>200</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C52" s="2" t="str">
         <f t="shared" si="1"/>
         <v>C8</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2233,20 +2235,20 @@
         <v>204</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C53" s="2" t="str">
         <f t="shared" si="1"/>
         <v>CC</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2254,20 +2256,20 @@
         <v>208</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D0</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2275,20 +2277,20 @@
         <v>212</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C55" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D4</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2296,20 +2298,20 @@
         <v>216</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="1"/>
         <v>D8</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2317,20 +2319,20 @@
         <v>220</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DC</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2338,20 +2340,20 @@
         <v>224</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="1"/>
         <v>E0</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,20 +2361,20 @@
         <v>228</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="1"/>
         <v>E4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,20 +2382,20 @@
         <v>232</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="1"/>
         <v>E8</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,20 +2403,20 @@
         <v>236</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="str">
         <f t="shared" si="1"/>
         <v>EC</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2422,20 +2424,20 @@
         <v>240</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="1"/>
         <v>F0</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2443,20 +2445,20 @@
         <v>244</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" si="1"/>
         <v>F4</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2464,23 +2466,23 @@
         <v>248</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="1"/>
         <v>F8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,20 +2490,20 @@
         <v>252</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="1"/>
         <v>FC</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2509,20 +2511,20 @@
         <v>256</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2534,7 +2536,7 @@
         <v>104</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
